--- a/docs/examples/工作簿1.xlsx
+++ b/docs/examples/工作簿1.xlsx
@@ -71,13 +71,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,10 +1080,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>132</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>156</xdr:col>
+      <xdr:colOff>15001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1092,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114298" y="285750"/>
-          <a:ext cx="90982802" cy="438150"/>
+          <a:off x="114298" y="272143"/>
+          <a:ext cx="106036417" cy="497058"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1197,15 +1197,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>127</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>155</xdr:col>
+      <xdr:colOff>331160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>69907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1214,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="895351"/>
-          <a:ext cx="83953350" cy="438150"/>
+          <a:off x="3311978" y="840922"/>
+          <a:ext cx="102474539" cy="467235"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1823,15 +1823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>600073</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>123</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>214176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1840,8 +1840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10201274" y="1495424"/>
-          <a:ext cx="74304525" cy="790575"/>
+          <a:off x="10125073" y="1400174"/>
+          <a:ext cx="94864103" cy="1028913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2915,13 +2915,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>117</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>286219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2930,8 +2930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="2543175"/>
-          <a:ext cx="70370700" cy="923926"/>
+          <a:off x="10281557" y="2366281"/>
+          <a:ext cx="94779662" cy="1989891"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3522,10 +3522,10 @@
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>119</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>365427</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3534,8 +3534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10344150" y="4524376"/>
-          <a:ext cx="71342250" cy="1076324"/>
+          <a:off x="10262507" y="4211412"/>
+          <a:ext cx="94877920" cy="1383478"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4076,15 +4076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>47622</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>117</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>274531</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4093,8 +4093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10334624" y="6524626"/>
-          <a:ext cx="70475475" cy="1362074"/>
+          <a:off x="10252979" y="6061983"/>
+          <a:ext cx="94796552" cy="2013085"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6116,13 +6116,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>117</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6131,8 +6131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19240499" y="8963027"/>
-          <a:ext cx="61607701" cy="790574"/>
+          <a:off x="19088099" y="8323490"/>
+          <a:ext cx="64405330" cy="1487260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7001,10 +7001,10 @@
       <xdr:rowOff>86846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7013,8 +7013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32272940" y="9948022"/>
-          <a:ext cx="44285647" cy="1930213"/>
+          <a:off x="32122461" y="9815953"/>
+          <a:ext cx="42839289" cy="1736511"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10065,15 +10065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
+      <xdr:colOff>425823</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10082,8 +10082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55110528" y="12180794"/>
-          <a:ext cx="21313589" cy="1243853"/>
+          <a:off x="54854394" y="12019909"/>
+          <a:ext cx="20189000" cy="1206234"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10658,15 +10658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10675,8 +10675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55177764" y="14052176"/>
-          <a:ext cx="21380823" cy="1445559"/>
+          <a:off x="54921630" y="13864879"/>
+          <a:ext cx="20148978" cy="1307086"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13434,6 +13434,1037 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>&amp; porp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65436751" y="20029714"/>
+          <a:ext cx="5143500" cy="2775858"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>generate(ast, extend({}, options,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> {prefixIndentifiers}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>code</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>272140</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>152</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84636426" y="8341177"/>
+          <a:ext cx="19362967" cy="1483180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>setUpRenderEffect(instance,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> initialVNode, container, anchor, parentSuspense, isSVG, optimized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组件级别的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>传</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>componentEffect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>326569</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>351065</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84690855" y="10246179"/>
+          <a:ext cx="16353067" cy="1194706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>342897</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84707183" y="11691258"/>
+          <a:ext cx="16353067" cy="1194706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>reactiveEffect</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>291189</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>100694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="圆角矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84655475" y="13367658"/>
+          <a:ext cx="16353067" cy="1194706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>componentEffect</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>253090</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>187778</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84617376" y="14815457"/>
+          <a:ext cx="4697188" cy="1235529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rendetComponentRoot(instance)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>228597</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84592883" y="16437429"/>
+          <a:ext cx="4697188" cy="1235529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>render(props,{attrs,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> slots, emit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取渲染结果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数，进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>track</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89671071" y="14842671"/>
+          <a:ext cx="11457215" cy="1268186"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>patch()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>547007</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89673793" y="16478249"/>
+          <a:ext cx="8134349" cy="1224643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>processElement(n1, n2, container, anchor, parentComponent, parentSuspense, isSVG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slotSCopeIds,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> optimized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>29934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89594872" y="17909720"/>
+          <a:ext cx="8134349" cy="1224643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mountElement(n1, n2, container, anchor, parentComponent, parentSuspense, isSVG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>slotSCopeIds,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> optimized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -14112,7 +15143,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -14128,7 +15159,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DS56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14144,26 +15198,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1048576"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>